--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922503.162919787</v>
+        <v>2031644.416479914</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9920809.819709854</v>
+        <v>9943256.695191877</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>90.23680914129771</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>233.4249087737977</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.09010053799444</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.3135884893134</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>366.6804395731118</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>113.7237131066887</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>49.09308060065136</v>
+        <v>53.56381956727291</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>31.71983999968392</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>17.97678685296504</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.8200927425518681</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>70.62659068010409</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>129.1078928223857</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.71572132711237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>24.83266606353065</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>11.76284745948112</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>81.88270281562022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E34" t="n">
-        <v>20.92847288553011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.3213230702132</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>79.36266849663015</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773659</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>130.7323655469549</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.5290632934498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>1360.218342260062</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>1360.218342260062</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1360.218342260062</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>563.4441848722098</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2346.491828864709</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2346.491828864709</v>
+        <v>1746.818182324183</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.723173594595</v>
+        <v>1746.818182324183</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.257415333515</v>
+        <v>1746.818182324183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.118083357703</v>
+        <v>1746.818182324183</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>460.3590590626809</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507742</v>
+        <v>1037.081874165935</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1301.021405661421</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1586.355276094753</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>780.9800723632304</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>780.9800723632304</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>630.8634329508947</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>482.9503393685015</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1290.909278514659</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1290.909278514659</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1290.909278514659</v>
       </c>
       <c r="U4" t="n">
-        <v>1394.715222610545</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.030734404658</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="W4" t="n">
-        <v>850.6135643676972</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="X4" t="n">
-        <v>622.6240134696799</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>780.9800723632304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>809.7335931689815</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>440.7710762285698</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>440.7710762285698</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>2447.466890918652</v>
+        <v>1199.872925144793</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.32755894284</v>
+        <v>809.7335931689815</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6850333819914</v>
+        <v>887.7367757312471</v>
       </c>
       <c r="C7" t="n">
-        <v>248.7488504540845</v>
+        <v>718.8005928033402</v>
       </c>
       <c r="D7" t="n">
-        <v>248.7488504540845</v>
+        <v>568.6839533910045</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8357568716914</v>
+        <v>420.7708598086114</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8357568716914</v>
+        <v>273.880912310701</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8357568716914</v>
+        <v>105.9047235725903</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1290.177819705017</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.115628253779</v>
+        <v>1290.177819705017</v>
       </c>
       <c r="X7" t="n">
-        <v>820.1260773557613</v>
+        <v>1290.177819705017</v>
       </c>
       <c r="Y7" t="n">
-        <v>599.3334982122311</v>
+        <v>1069.385240561487</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.326884986529</v>
+        <v>878.3738210286861</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.326884986529</v>
+        <v>878.3738210286861</v>
       </c>
       <c r="D8" t="n">
-        <v>880.0611863797781</v>
+        <v>878.3738210286861</v>
       </c>
       <c r="E8" t="n">
-        <v>494.2729337815338</v>
+        <v>492.5855684304418</v>
       </c>
       <c r="F8" t="n">
-        <v>83.28702899192626</v>
+        <v>81.59966364083425</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>69.95822588137027</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.92672505065</v>
+        <v>1655.11299306862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.92672505065</v>
+        <v>1264.973661092808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1011.807347657622</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.0150268210029</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210029</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>753.7971568625503</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W10" t="n">
-        <v>753.7971568625503</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="X10" t="n">
-        <v>525.807605964533</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.0150268210029</v>
+        <v>326.1505412887617</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>219.0505596597677</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052757</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0962634073653</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9001641222453</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>118.9001641222453</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5890,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.260321675049</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>862.3241387471426</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.908786505289</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6783,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.71655096576</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>597.2570777219835</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7190,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935558</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>666.6476097656489</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>516.5309703533131</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>368.61787677092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143848</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.010880068019674</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184728</v>
+        <v>35.38972270187088</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>46.70986042742669</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>38.1389282762421</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>97.57899151911153</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.43317025503488</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>213.946807929556</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.73277020259214</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E34" t="n">
-        <v>125.5054897610391</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>34.09972495271806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>206.821805892614</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>226.4057028288544</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>36.51445555167294</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872931.0887935724</v>
+        <v>895743.5319448082</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>872931.0887935724</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>872931.0887935724</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830042</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165055</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26439,7 +26441,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
@@ -26457,7 +26459,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763665.9072272715</v>
+        <v>-614084.6106825487</v>
       </c>
       <c r="C6" t="n">
-        <v>351085.8763486481</v>
+        <v>179417.0350283459</v>
       </c>
       <c r="D6" t="n">
-        <v>351085.8763486479</v>
+        <v>352181.3948182405</v>
       </c>
       <c r="E6" t="n">
-        <v>-49892.83219714378</v>
+        <v>-43296.25831834823</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.609427402</v>
+        <v>457592.6094274024</v>
       </c>
       <c r="G6" t="n">
         <v>457592.6094274024</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274023</v>
+        <v>457592.6094274021</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274024</v>
+        <v>457592.6094274022</v>
       </c>
       <c r="J6" t="n">
-        <v>289987.4316174197</v>
+        <v>288178.5926013542</v>
       </c>
       <c r="K6" t="n">
         <v>457592.6094274024</v>
       </c>
       <c r="L6" t="n">
+        <v>457592.6094274022</v>
+      </c>
+      <c r="M6" t="n">
+        <v>326708.1525231671</v>
+      </c>
+      <c r="N6" t="n">
+        <v>457592.609427402</v>
+      </c>
+      <c r="O6" t="n">
         <v>457592.6094274023</v>
       </c>
-      <c r="M6" t="n">
-        <v>324985.3156984753</v>
-      </c>
-      <c r="N6" t="n">
-        <v>457592.6094274026</v>
-      </c>
-      <c r="O6" t="n">
-        <v>457592.609427402</v>
-      </c>
       <c r="P6" t="n">
-        <v>457592.6094274023</v>
+        <v>457592.6094274024</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>160.8084409871643</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>94.32734969633719</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>96.3933595139756</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>46.91356563188722</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.24993049914997</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>256.0073875717803</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>98.15842855447748</v>
+        <v>93.59724064417406</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>379.8278627732701</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>282.8095003954947</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>179.0118874393854</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28019,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>181.5110526437239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32555,10 +32557,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32797,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522351</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>245.2280030492896</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420051</v>
+        <v>287.3864175150212</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>416.7158094095737</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,13 +35901,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,10 +36205,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36445,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37324,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031644.416479914</v>
+        <v>2027488.230171948</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>59.20500471203745</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>233.4249087737977</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>55.26862442619073</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.09010053799444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>366.6804395731118</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>210.9611477124621</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>53.56381956727291</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>33.93089591116134</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>17.97678685296504</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>158.7162633552373</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8200927425518681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>113.1536111381121</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>129.1078928223857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.76284745948112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>100.2041656279924</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016489</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>7.408064079030886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>105.7906564314211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>116.4636264596498</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>79.36266849663015</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>60.11729550773659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>130.7323655469549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.52079624060509</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360.218342260062</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="C2" t="n">
-        <v>1360.218342260062</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>1360.218342260062</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618174</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2530.189731078322</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2530.189731078322</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2276.548869459908</v>
       </c>
       <c r="V2" t="n">
-        <v>1746.818182324183</v>
+        <v>1945.485982116337</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.818182324183</v>
+        <v>1592.717326846223</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.818182324183</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.818182324183</v>
+        <v>1219.251568585143</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>160.9595568342605</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626809</v>
+        <v>282.3826491045396</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165935</v>
+        <v>859.1054642077952</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661421</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094753</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>780.9800723632304</v>
+        <v>539.3916432493207</v>
       </c>
       <c r="C4" t="n">
-        <v>780.9800723632304</v>
+        <v>370.4554603214139</v>
       </c>
       <c r="D4" t="n">
-        <v>630.8634329508947</v>
+        <v>370.4554603214139</v>
       </c>
       <c r="E4" t="n">
-        <v>482.9503393685015</v>
+        <v>370.4554603214139</v>
       </c>
       <c r="F4" t="n">
-        <v>336.0603918705912</v>
+        <v>223.5655128235035</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>223.5655128235035</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1290.909278514659</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1290.909278514659</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1290.909278514659</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1001.772651506761</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="V4" t="n">
-        <v>1001.772651506761</v>
+        <v>767.3811941473381</v>
       </c>
       <c r="W4" t="n">
-        <v>1001.772651506761</v>
+        <v>767.3811941473381</v>
       </c>
       <c r="X4" t="n">
-        <v>1001.772651506761</v>
+        <v>539.3916432493207</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.9800723632304</v>
+        <v>539.3916432493207</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>809.7335931689815</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="C5" t="n">
-        <v>440.7710762285698</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="D5" t="n">
-        <v>440.7710762285698</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2252.723517164304</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>1921.660629820733</v>
       </c>
       <c r="W5" t="n">
-        <v>1573.338683405873</v>
+        <v>1568.891974550619</v>
       </c>
       <c r="X5" t="n">
-        <v>1199.872925144793</v>
+        <v>1568.891974550619</v>
       </c>
       <c r="Y5" t="n">
-        <v>809.7335931689815</v>
+        <v>1568.891974550619</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>887.7367757312471</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>718.8005928033402</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>568.6839533910045</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>420.7708598086114</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>273.880912310701</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>105.9047235725903</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.177819705017</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1290.177819705017</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.177819705017</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y7" t="n">
-        <v>1069.385240561487</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>878.3738210286861</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>878.3738210286861</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>878.3738210286861</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>492.5855684304418</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>81.59966364083425</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>69.95822588137027</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4834,22 +4834,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.578751329699</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.11299306862</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="Y8" t="n">
-        <v>1264.973661092808</v>
+        <v>2039.533976230591</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M9" t="n">
-        <v>1011.807347657622</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.3221647811336</v>
+        <v>947.9284843886604</v>
       </c>
       <c r="C10" t="n">
-        <v>325.3221647811336</v>
+        <v>778.9923014607535</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3221647811336</v>
+        <v>628.8756620484178</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3221647811336</v>
+        <v>480.9625684660247</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811336</v>
+        <v>334.0726209681143</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>166.0964322300036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>546.9431204322918</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>546.9431204322918</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>326.1505412887617</v>
+        <v>1129.5769492189</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5050,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>383.4415877881669</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>808.8888553856821</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>639.9526724577752</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>489.8360330454394</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>341.9229394630463</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>195.0329919651359</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>990.5373202159218</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5898,25 +5898,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738537</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>738.560493261518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408906</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1897.296768897751</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1642.612280691864</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1353.195110654903</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>147.9929666331142</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>84.6910855397069</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.010880068019674</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>35.38972270187088</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>46.70986042742669</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>173.7639243740402</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>38.1389282762421</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.31997266427641</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>40.6433062151481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.15184655856254</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>206.821805892614</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>226.4057028288544</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>36.51445555167294</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610395</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895743.5319448082</v>
+        <v>895743.5319448079</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596172</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260483</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26426,7 +26426,7 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26435,10 +26435,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614084.6106825487</v>
+        <v>-614084.6106825509</v>
       </c>
       <c r="C6" t="n">
-        <v>179417.0350283459</v>
+        <v>179417.0350283487</v>
       </c>
       <c r="D6" t="n">
-        <v>352181.3948182405</v>
+        <v>352181.3948182407</v>
       </c>
       <c r="E6" t="n">
-        <v>-43296.25831834823</v>
+        <v>-43643.6375727054</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730455</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730453</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274021</v>
+        <v>457245.2301730455</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730453</v>
       </c>
       <c r="J6" t="n">
-        <v>288178.5926013542</v>
+        <v>287831.2133469972</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730455</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730455</v>
       </c>
       <c r="M6" t="n">
-        <v>326708.1525231671</v>
+        <v>326360.7732688105</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.609427402</v>
+        <v>457245.2301730451</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274023</v>
+        <v>457245.2301730451</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730456</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918294</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>428.2691096918293</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>81.11077926138655</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>94.32734969633719</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>94.93426323772978</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>96.3933595139756</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>15.24993049914997</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>40.08228806471314</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.59724064417406</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27833,13 +27833,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>252.5921024254297</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>282.8095003954947</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>211.0148373232317</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.0118874393854</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>34.0074490733349</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-2.96152164604453e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31524,25 +31524,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31551,7 +31551,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31603,22 +31603,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,10 +31700,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31712,10 +31712,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32332,13 +32332,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>447.0541449741273</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>110.2623247590311</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>245.2280030492896</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35032,7 +35032,7 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>287.3864175150212</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
         <v>328.1069739656113</v>
@@ -35178,25 +35178,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>416.7158094095737</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>425.7606191871905</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35348,10 +35348,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2027488.230171948</v>
+        <v>2029248.760474732</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.20500471203745</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>314.7676666217287</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>55.26862442619073</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>127.1362085847233</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>100.9227506374785</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.9611477124621</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1074,7 +1074,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>33.93089591116134</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>155.1498917871974</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>223.5518288029175</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>158.7162633552373</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,7 +1308,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>113.1536111381121</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>33.93089591116178</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.92847288552895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>274.0768109133912</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2041656279924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016489</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.13627195705873</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060509</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.11626575513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.251568585143</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
         <v>1219.251568585143</v>
@@ -4318,7 +4318,7 @@
         <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054108</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
         <v>51.79985532281972</v>
@@ -4330,25 +4330,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>161.6847718512911</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>644.3837423617397</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>882.0065235799317</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>1178.077090137535</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1483.55219637312</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>1758.668415689755</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2530.189731078322</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2530.189731078322</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2276.548869459908</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1945.485982116337</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W2" t="n">
-        <v>1592.717326846223</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X2" t="n">
-        <v>1219.251568585143</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.251568585143</v>
+        <v>1588.214085525555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>160.9595568342605</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>282.3826491045396</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>859.1054642077952</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703283</v>
+        <v>1039.200821018973</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1408.378866136617</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.3916432493207</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>370.4554603214139</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>370.4554603214139</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>370.4554603214139</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>223.5655128235035</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>223.5655128235035</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4524,16 +4524,16 @@
         <v>1022.065682353225</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473381</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="W4" t="n">
-        <v>767.3811941473381</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="X4" t="n">
-        <v>539.3916432493207</v>
+        <v>794.0761314552076</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.3916432493207</v>
+        <v>665.6557187433658</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.292134486497</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.292134486497</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G5" t="n">
         <v>355.6243878970215</v>
@@ -4570,13 +4570,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2488.050593779897</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2488.050593779897</v>
       </c>
       <c r="U5" t="n">
-        <v>2252.723517164304</v>
+        <v>2234.471365722144</v>
       </c>
       <c r="V5" t="n">
-        <v>1921.660629820733</v>
+        <v>1903.408478378573</v>
       </c>
       <c r="W5" t="n">
-        <v>1568.891974550619</v>
+        <v>1550.639823108459</v>
       </c>
       <c r="X5" t="n">
-        <v>1568.891974550619</v>
+        <v>1550.639823108459</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.891974550619</v>
+        <v>1550.639823108459</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>982.2794430485947</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C7" t="n">
-        <v>813.3432601206878</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4764,13 +4764,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.710037920382</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.720487022364</v>
+        <v>1490.266607742567</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.927907878834</v>
+        <v>1269.474028599037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.934136166469</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1283.971619226057</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4810,16 +4810,16 @@
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4837,19 +4837,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="X8" t="n">
-        <v>2429.673308206402</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.533976230591</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128336</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291483</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1090.394710821474</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.804272147216</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1815.732952862747</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.9284843886604</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C10" t="n">
-        <v>778.9923014607535</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D10" t="n">
-        <v>628.8756620484178</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E10" t="n">
-        <v>480.9625684660247</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F10" t="n">
-        <v>334.0726209681143</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0964322300036</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5001,13 +5001,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y10" t="n">
-        <v>1129.5769492189</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,13 +5363,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856821</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577752</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454394</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9229394630463</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>195.0329919651359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235161</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258102</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.4315576023</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396413</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359452</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359452</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159218</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7128,19 +7128,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,7 +7326,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7845,13 +7845,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36.14651360027057</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>147.9929666331142</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>84.6910855397069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>84.69108553970744</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530996</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>173.7639243740402</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5054897610402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>12.10766347585297</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.31997266427641</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,40 +24141,40 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>81.26583631856553</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>57.2291039219422</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81.26583631856555</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610395</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596172</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260483</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26453,7 +26453,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614084.6106825509</v>
+        <v>-614084.6106825512</v>
       </c>
       <c r="C6" t="n">
-        <v>179417.0350283487</v>
+        <v>179417.0350283486</v>
       </c>
       <c r="D6" t="n">
-        <v>352181.3948182407</v>
+        <v>352181.3948182408</v>
       </c>
       <c r="E6" t="n">
-        <v>-43643.6375727054</v>
+        <v>-43330.99624378404</v>
       </c>
       <c r="F6" t="n">
-        <v>457245.2301730455</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="G6" t="n">
-        <v>457245.2301730453</v>
+        <v>457557.8715019663</v>
       </c>
       <c r="H6" t="n">
-        <v>457245.2301730455</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="I6" t="n">
-        <v>457245.2301730453</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="J6" t="n">
-        <v>287831.2133469972</v>
+        <v>288143.8546759185</v>
       </c>
       <c r="K6" t="n">
-        <v>457245.2301730455</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="L6" t="n">
-        <v>457245.2301730455</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="M6" t="n">
-        <v>326360.7732688105</v>
+        <v>326673.4145977314</v>
       </c>
       <c r="N6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019664</v>
       </c>
       <c r="O6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="P6" t="n">
-        <v>457245.2301730456</v>
+        <v>457557.8715019668</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,25 +26980,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11077926138655</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>54.96343405674031</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>94.93426323772978</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>91.44844476737144</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>22.01265813697451</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>40.08228806471314</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5921024254297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>70.55976360183976</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>27.49160697425776</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>211.0148373232317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.0074490733349</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>252.5921024254292</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-2.96152164604453e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>110.9948651802742</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>447.0541449741273</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110.2623247590311</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
         <v>122.649588151797</v>
@@ -34789,7 +34789,7 @@
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>372.907116280448</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422580011</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>335.7048228193602</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35269,7 +35269,7 @@
         <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>425.7606191871905</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
